--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2984.09443466055</v>
+        <v>447305.2470656361</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2984.09443466055</v>
+        <v>447305.2470656361</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342886382.645128</v>
+        <v>55300166.53731544</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11603.97104046101</v>
+        <v>1291554.547911884</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21999.14021841854</v>
+        <v>2393509.458202904</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32394.30939637606</v>
+        <v>3495464.368493926</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42878.51484891631</v>
+        <v>4589607.853151374</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53303.68096596167</v>
+        <v>5691562.763442395</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63728.84708300703</v>
+        <v>6793517.673733415</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74154.01320005239</v>
+        <v>7895472.584024431</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84579.17931709775</v>
+        <v>8997427.494315449</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95063.38476963673</v>
+        <v>10091570.97897309</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105495.8053846194</v>
+        <v>11192579.69341433</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115920.9715016648</v>
+        <v>12294534.60370535</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126346.1376187101</v>
+        <v>13396489.51399638</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136771.3037357554</v>
+        <v>14498444.4242874</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147595.8162100199</v>
+        <v>15541448.54190035</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158534.1570842849</v>
+        <v>16562366.45551322</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>372.0000000001725</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
